--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,62 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,49 +736,61 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,20 +806,26 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,11 +935,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +989,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -959,16 +1012,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,20 +1043,26 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1074,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,20 +1093,26 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,11 +1137,17 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1175,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1117,16 +1202,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,11 +1242,17 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1280,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1204,16 +1307,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1233,16 +1342,22 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1490,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1374,20 +1513,26 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1407,16 +1552,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1595,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1465,50 +1622,62 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1704,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1553,17 +1726,23 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,95 +1770,119 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1698,17 +1901,23 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1945,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2085,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2155,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1930,17 +2181,23 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2224,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1985,17 +2246,23 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2014,54 +2281,66 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2072,17 +2351,23 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2395,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,16 +2535,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2246,17 +2561,23 @@
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,8 +2725,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2402,19 +2749,25 @@
         <v>-20600</v>
       </c>
       <c r="H72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-20500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,16 +2865,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2520,17 +2891,23 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2935,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2613,16 +3002,22 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3235,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2832,13 +3265,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,19 +3580,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3119,42 +3610,54 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3177,9 +3680,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,75 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -742,60 +750,72 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -812,20 +832,26 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +943,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,11 +981,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,16 +1043,18 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1018,21 +1072,27 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1200</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1049,20 +1109,26 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,13 +1142,15 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1099,25 +1167,31 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1143,34 +1217,40 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1181,16 +1261,22 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1208,16 +1294,22 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,11 +1340,17 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,16 +1384,22 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1313,24 +1417,30 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1348,16 +1458,22 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,13 +1630,19 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1519,28 +1659,34 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1558,16 +1704,22 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,16 +1753,22 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1628,56 +1786,68 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,13 +1878,15 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1732,17 +1906,23 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,118 +1956,142 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1907,17 +2111,23 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,78 +2161,96 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2117,17 +2357,23 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,13 +2407,19 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2187,17 +2439,23 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,13 +2486,15 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2252,17 +2514,23 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2287,25 +2555,31 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2322,31 +2596,37 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>11300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2357,17 +2637,23 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,31 +2687,37 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2436,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,22 +2851,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>11500</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -2567,17 +2883,23 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,16 +3073,22 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-20600</v>
+        <v>-25800</v>
       </c>
       <c r="E72" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="F72" s="3">
         <v>-20600</v>
@@ -2755,19 +3103,25 @@
         <v>-20600</v>
       </c>
       <c r="J72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-20500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,22 +3237,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-5400</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -2897,17 +3269,23 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,56 +3319,68 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3008,16 +3398,22 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3427,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,16 +3669,22 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3271,13 +3705,19 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3317,17 +3759,23 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3422,17 +3882,23 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,25 +4072,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -3616,53 +4108,65 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3686,9 +4190,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
@@ -756,70 +759,76 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,20 +847,23 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,11 +1006,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,20 +1070,21 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1500</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1078,24 +1104,27 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1115,20 +1144,23 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,16 +1176,17 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1173,29 +1206,32 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1223,37 +1259,40 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1267,8 +1306,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1276,11 +1318,11 @@
         <v>-1200</v>
       </c>
       <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1300,24 +1342,27 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -1346,11 +1391,14 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1438,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1399,11 +1450,11 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1423,16 +1474,19 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,11 +1494,11 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1464,16 +1518,19 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,16 +1702,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1665,20 +1734,23 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1686,11 +1758,11 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1710,16 +1782,19 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1834,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1768,11 +1846,11 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1792,62 +1870,68 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,17 +1965,18 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1912,17 +1998,20 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,16 +2051,19 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1988,32 +2080,35 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2029,32 +2124,35 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2070,32 +2168,35 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2117,17 +2218,20 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,17 +2271,20 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2193,31 +2300,34 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2234,23 +2344,26 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2363,17 +2482,20 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,17 +2535,20 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6200</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -2445,17 +2570,20 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,17 +2617,18 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -2520,17 +2650,20 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2561,29 +2694,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2602,25 +2738,28 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -2629,7 +2768,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2643,17 +2782,20 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,17 +2835,20 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2719,8 +2864,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,16 +3011,19 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -2875,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -2889,17 +3046,20 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,19 +3249,22 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-20600</v>
       </c>
       <c r="G72" s="3">
         <v>-20600</v>
@@ -3109,19 +3282,22 @@
         <v>-20600</v>
       </c>
       <c r="L72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-20500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,16 +3425,19 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -3261,7 +3446,7 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -3275,17 +3460,20 @@
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3513,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3380,11 +3574,11 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3404,16 +3598,19 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,16 +3626,17 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3449,29 +3647,32 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,20 +3888,23 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3711,13 +3927,16 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +3952,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3765,17 +3985,20 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,20 +4096,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3888,17 +4117,20 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,11 +4332,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4114,22 +4359,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
@@ -4139,37 +4387,40 @@
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>-200</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2100</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4196,9 +4447,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -762,76 +766,82 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,20 +860,23 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,11 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,23 +1097,24 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1107,16 +1134,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,11 +1154,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,20 +1177,23 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,8 +1222,8 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1209,20 +1243,23 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,11 +1267,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1262,11 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1291,11 +1331,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1309,23 +1349,26 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1200</v>
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
         <v>-1200</v>
       </c>
       <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1345,16 +1388,19 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1364,8 +1410,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1394,11 +1440,14 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,23 +1490,26 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
         <v>-1200</v>
       </c>
       <c r="F26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1477,31 +1529,34 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
         <v>-1200</v>
       </c>
       <c r="F27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1521,16 +1576,19 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,8 +1786,8 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1737,35 +1807,38 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
         <v>-1200</v>
       </c>
       <c r="F33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1785,16 +1858,19 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,23 +1913,26 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
         <v>-1200</v>
       </c>
       <c r="F35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1873,65 +1952,71 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,20 +2052,21 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2001,17 +2088,20 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,19 +2144,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2083,35 +2176,38 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2127,35 +2223,38 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2171,35 +2270,38 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E46" s="3">
         <v>9700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2221,17 +2323,20 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,20 +2379,23 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2303,23 +2411,26 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2329,8 +2440,8 @@
       <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -2347,23 +2458,26 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2485,17 +2605,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,20 +2661,23 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2573,17 +2699,20 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,20 +2748,21 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2653,17 +2784,20 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2697,32 +2831,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E59" s="3">
         <v>13900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -2741,28 +2878,31 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E60" s="3">
         <v>17100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2771,7 +2911,7 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2785,17 +2925,20 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,20 +2981,23 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2867,8 +3013,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,19 +3169,22 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E66" s="3">
         <v>17200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -3035,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -3049,17 +3207,20 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>0</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,22 +3423,25 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-20600</v>
       </c>
       <c r="H72" s="3">
         <v>-20600</v>
@@ -3285,19 +3459,22 @@
         <v>-20600</v>
       </c>
       <c r="M72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="N72" s="3">
         <v>-20500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,19 +3611,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3449,7 +3635,7 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -3463,17 +3649,20 @@
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,72 +3705,78 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
         <v>-1200</v>
       </c>
       <c r="F81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3601,16 +3796,19 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3638,8 +3837,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3647,32 +3846,35 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,23 +4105,26 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3930,13 +4147,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3973,14 +4194,14 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3988,17 +4209,20 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4096,8 +4326,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4105,14 +4335,14 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4120,17 +4350,20 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,16 +4581,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4362,13 +4608,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4376,55 +4625,58 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4450,9 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
-        <v>300</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -769,67 +777,79 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,16 +857,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -863,20 +883,26 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,11 +1072,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,29 +1150,31 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1137,16 +1191,22 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,17 +1214,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1180,20 +1240,26 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,16 +1288,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1246,20 +1314,26 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,16 +1341,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>-1400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1302,11 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,14 +1414,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,29 +1432,35 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1391,16 +1477,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1413,11 +1505,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1443,11 +1535,17 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,29 +1591,35 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1532,37 +1636,43 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1579,16 +1689,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,16 +1924,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1810,41 +1950,47 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1861,16 +2007,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,29 +2068,35 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1955,68 +2113,80 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,26 +2225,28 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>6900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2091,17 +2265,23 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,25 +2327,31 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2179,41 +2365,47 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2226,41 +2418,47 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2273,41 +2471,47 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F46" s="3">
         <v>15700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2326,17 +2530,23 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,26 +2592,32 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2414,40 +2630,46 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -2461,23 +2683,29 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2608,17 +2848,23 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,26 +2910,32 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F54" s="3">
         <v>18900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2702,17 +2954,23 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,26 +3009,28 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>8100</v>
       </c>
       <c r="E57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -2787,17 +3049,23 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2834,38 +3102,44 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24200</v>
+        <v>25000</v>
       </c>
       <c r="E59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>24400</v>
+      </c>
+      <c r="G59" s="3">
         <v>13900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -2881,43 +3155,49 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F60" s="3">
         <v>25400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -2928,17 +3208,23 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,26 +3270,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3016,11 +3308,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,34 +3482,40 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F66" s="3">
         <v>27100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -3210,17 +3526,23 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,28 +3768,34 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-28700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-26900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-25800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-20600</v>
       </c>
       <c r="J72" s="3">
         <v>-20600</v>
@@ -3462,19 +3810,25 @@
         <v>-20600</v>
       </c>
       <c r="N72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-20500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,34 +3980,40 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -3652,17 +4024,23 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,81 +4086,93 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3799,16 +4189,22 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3840,41 +4238,47 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,29 +4536,35 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4150,13 +4584,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,14 +4633,14 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4206,23 +4648,29 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4324,22 +4784,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4347,23 +4807,29 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4584,19 +5076,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4611,78 +5103,90 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4705,9 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,20 +754,20 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1000</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
@@ -783,20 +786,23 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,16 +810,16 @@
         <v>800</v>
       </c>
       <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -821,35 +827,38 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,20 +866,20 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F10" s="3">
         <v>-400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,20 +898,23 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,11 +1097,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,32 +1177,33 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>3600</v>
       </c>
       <c r="E17" s="3">
         <v>4700</v>
       </c>
       <c r="F17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2100</v>
-      </c>
       <c r="H17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1197,16 +1223,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,20 +1243,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1100</v>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1246,20 +1275,23 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,20 +1321,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1320,20 +1353,23 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,20 +1377,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1100</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1382,34 +1418,37 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1420,11 +1459,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1438,32 +1477,35 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1483,16 +1525,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1511,8 +1556,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1541,11 +1586,14 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,32 +1645,35 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1642,40 +1693,43 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1695,16 +1749,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,20 +1993,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1956,44 +2025,47 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2013,16 +2085,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,32 +2149,35 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2119,74 +2197,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,29 +2312,30 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2271,17 +2357,20 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,28 +2422,31 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2371,44 +2463,47 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2424,44 +2519,47 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2477,23 +2575,26 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,20 +2602,20 @@
         <v>11400</v>
       </c>
       <c r="E46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F46" s="3">
         <v>11800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2536,17 +2637,20 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,29 +2702,32 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2636,23 +2743,26 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2773,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2671,8 +2781,8 @@
       <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2689,23 +2799,26 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2854,17 +2973,20 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,29 +3038,32 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E54" s="3">
         <v>19200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2960,17 +3085,20 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,29 +3140,30 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -3055,17 +3185,20 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3108,41 +3241,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E59" s="3">
         <v>25000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3161,37 +3297,40 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E60" s="3">
         <v>33200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3200,7 +3339,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -3214,17 +3353,20 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,29 +3418,32 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3314,8 +3459,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,28 +3642,31 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E66" s="3">
         <v>37300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3518,7 +3675,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3532,17 +3689,20 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,31 +3944,34 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-28700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-20600</v>
       </c>
       <c r="K72" s="3">
         <v>-20600</v>
@@ -3816,19 +3989,22 @@
         <v>-20600</v>
       </c>
       <c r="P72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,28 +4168,31 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -4016,7 +4201,7 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -4030,17 +4215,20 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,90 +4280,96 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -4195,16 +4389,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4244,8 +4442,8 @@
       <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4253,32 +4451,35 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,32 +4755,35 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5300</v>
       </c>
-      <c r="F89" s="3">
-        <v>3000</v>
-      </c>
       <c r="G89" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="H89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4590,13 +4806,16 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4636,8 +4856,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4645,14 +4865,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4660,17 +4880,20 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,19 +5013,19 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4804,14 +5033,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4819,17 +5048,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5303,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5082,16 +5327,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5109,13 +5354,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,73 +5371,76 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5215,9 +5466,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TXCB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>TXCB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -789,100 +793,106 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="3">
         <v>800</v>
       </c>
       <c r="F9" s="3">
+        <v>800</v>
+      </c>
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-300</v>
       </c>
       <c r="E10" s="3">
         <v>-800</v>
       </c>
       <c r="F10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G10" s="3">
         <v>-400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>-300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,20 +911,23 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,11 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,35 +1204,36 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4700</v>
       </c>
       <c r="F17" s="3">
         <v>4700</v>
       </c>
       <c r="G17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1226,40 +1253,43 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1278,20 +1308,23 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,32 +1345,33 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1356,44 +1390,47 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1000</v>
       </c>
       <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1421,19 +1458,22 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1441,17 +1481,17 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1462,11 +1502,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1480,35 +1520,38 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1528,16 +1571,19 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1559,8 +1605,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1589,11 +1635,14 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,35 +1697,38 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1696,43 +1748,46 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1752,16 +1807,19 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,32 +2051,35 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2028,47 +2098,50 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2088,16 +2161,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,35 +2228,38 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2200,77 +2279,83 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2322,23 +2409,23 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2360,17 +2447,20 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,31 +2515,34 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2466,47 +2559,50 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2522,47 +2618,50 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2578,47 +2677,50 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="E46" s="3">
         <v>11400</v>
       </c>
       <c r="F46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G46" s="3">
         <v>11800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2640,17 +2742,20 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
+      <c r="R46" s="3">
+        <v>0</v>
       </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>19400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,32 +2810,35 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2746,23 +2854,26 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2776,7 +2887,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -2784,8 +2895,8 @@
       <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2802,23 +2913,26 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2976,17 +3096,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,32 +3164,35 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E54" s="3">
         <v>18500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3088,17 +3214,20 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
+      <c r="R54" s="3">
+        <v>0</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3150,23 +3281,23 @@
         <v>8400</v>
       </c>
       <c r="E57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3188,17 +3319,20 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3244,44 +3378,47 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E59" s="3">
         <v>28700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3300,40 +3437,43 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E60" s="3">
         <v>37100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3342,7 +3482,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -3356,17 +3496,20 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>0</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,32 +3564,35 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3462,8 +3608,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,31 +3800,34 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E66" s="3">
         <v>40500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3678,7 +3836,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3692,17 +3850,20 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>0</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,34 +4118,37 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-41900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-28700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-20600</v>
       </c>
       <c r="L72" s="3">
         <v>-20600</v>
@@ -3992,19 +4166,22 @@
         <v>-20600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="R72" s="3">
         <v>-20500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,31 +4354,34 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-22100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-18200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -4204,7 +4390,7 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -4218,17 +4404,20 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,96 +4472,102 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>40633</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4392,16 +4587,19 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4440,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4454,32 +4653,35 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,35 +4972,38 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -4809,13 +5026,16 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4853,14 +5074,14 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4868,14 +5089,14 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4883,17 +5104,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5016,19 +5246,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5036,14 +5266,14 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5051,17 +5281,20 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,17 +5549,20 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5330,16 +5576,16 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5357,13 +5603,16 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,76 +5623,79 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
+        <v>200</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5469,9 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
     </row>
